--- a/Tabla.xlsx
+++ b/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMUEL\Documents\Github Repositorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03AC0E34-8ECD-4CE3-A7D4-017B08A98F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F7121-0169-48F5-8B84-A1A93308B112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8964F49F-B1F5-46F0-B290-4C26A1ECDC47}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Año</t>
   </si>
@@ -57,22 +57,7 @@
     <t>Lanzamiento de nuevos programas académicos</t>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Recuento</t>
-  </si>
-  <si>
     <t>Celebración del 40° aniversario de la universidad</t>
-  </si>
-  <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -114,10 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +499,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,50 +508,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1946</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1947</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1981</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2023</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
